--- a/biology/Botanique/Trèfle_de_montagne/Trèfle_de_montagne.xlsx
+++ b/biology/Botanique/Trèfle_de_montagne/Trèfle_de_montagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_de_montagne</t>
+          <t>Trèfle_de_montagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium montanum
 Le Trèfle de montagne (Trifolium montanum L.) est une espèce de plantes herbacées vivaces de la famille des Fabaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_de_montagne</t>
+          <t>Trèfle_de_montagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante assez petite, en touffe, aux tiges le plus souvent non ramifiées, aux feuilles trilobées, les inférieures aux folioles ovales, les supérieures aux folioles pointues, aux fleurs blanc-jaunâtre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_de_montagne</t>
+          <t>Trèfle_de_montagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : racème capituliforme
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_de_montagne</t>
+          <t>Trèfle_de_montagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,9 +601,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante .
 Toutefois localement l'espèce est considérée en danger-critique (CR) en région Centre et Picardie ; en danger (EN) en Limousin, comme vulnérable (VU) en Champagne-Ardenne. Elle a disparu (RE) en Nord-Pas-de-Calais et Île de France.
 Cette espèce est protégée en région Limousin (Article 1).
 </t>
